--- a/src/test/java/Resources/locators.xlsx
+++ b/src/test/java/Resources/locators.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b4c788e2d6c3be4/Desktop/E-Commerce/E_Commerce_Testing/src/test/java/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit\OneDrive\Desktop\E-Commerce\E_Commerce_Testing\src\test\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_F25DC773A252ABDACC10487D699A63325ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFACD02D-B4C2-40CA-8AFC-A4379E714BFF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADC2A3B-CE2A-44A5-9064-9BF6DCEA15EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>auth_user</t>
   </si>
@@ -88,6 +88,42 @@
   </si>
   <si>
     <t>login_button</t>
+  </si>
+  <si>
+    <t>ToKillAMockBird</t>
+  </si>
+  <si>
+    <t>//div[@class='Products_container__XyS2b']//div[1]//div[4]//button[1]</t>
+  </si>
+  <si>
+    <t>WarAndPeace</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/div[1]/div[1]/div[4]/div[1]/div[2]/div[4]/button[1]</t>
+  </si>
+  <si>
+    <t>//div[@class='Header_detailCart__SrHWm']//*[name()='svg']</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>amt</t>
+  </si>
+  <si>
+    <t>div[class='Total_body__lzx+o'] span</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>//button[@class='Total_btn__+uHWj']</t>
+  </si>
+  <si>
+    <t>//span[normalize-space()='Thank you For Shopping With Us']</t>
+  </si>
+  <si>
+    <t>ty</t>
   </si>
 </sst>
 </file>
@@ -129,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,16 +188,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1E482B-16D7-47EE-91DC-4E7C6932E59F}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,11 +582,59 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
